--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>账单号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,10 @@
   </si>
   <si>
     <t>购药次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xuhao</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,9 +429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -435,6 +437,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>

--- a/test.xlsx
+++ b/test.xlsx
@@ -427,9 +427,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -464,229 +466,68 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1111</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>11112</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>11113</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>11114</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>11115</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>11116</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>1112</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>111122</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>111123</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>111124</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>111125</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>111126</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>1113</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>111123</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>111124</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>111125</v>
+        <v>19</v>
       </c>
       <c r="F4">
-        <v>111126</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>111127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1114</v>
-      </c>
-      <c r="C5">
-        <v>111124</v>
-      </c>
-      <c r="D5">
-        <v>111125</v>
-      </c>
-      <c r="E5">
-        <v>111126</v>
-      </c>
-      <c r="F5">
-        <v>111127</v>
-      </c>
-      <c r="G5">
-        <v>111128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1115</v>
-      </c>
-      <c r="C6">
-        <v>111125</v>
-      </c>
-      <c r="D6">
-        <v>111126</v>
-      </c>
-      <c r="E6">
-        <v>111127</v>
-      </c>
-      <c r="F6">
-        <v>111128</v>
-      </c>
-      <c r="G6">
-        <v>111129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1116</v>
-      </c>
-      <c r="C7">
-        <v>111126</v>
-      </c>
-      <c r="D7">
-        <v>111127</v>
-      </c>
-      <c r="E7">
-        <v>111128</v>
-      </c>
-      <c r="F7">
-        <v>111129</v>
-      </c>
-      <c r="G7">
-        <v>111130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1117</v>
-      </c>
-      <c r="C8">
-        <v>111127</v>
-      </c>
-      <c r="D8">
-        <v>111128</v>
-      </c>
-      <c r="E8">
-        <v>111129</v>
-      </c>
-      <c r="F8">
-        <v>111130</v>
-      </c>
-      <c r="G8">
-        <v>111131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1118</v>
-      </c>
-      <c r="C9">
-        <v>111128</v>
-      </c>
-      <c r="D9">
-        <v>111129</v>
-      </c>
-      <c r="E9">
-        <v>111130</v>
-      </c>
-      <c r="F9">
-        <v>111131</v>
-      </c>
-      <c r="G9">
-        <v>111132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1119</v>
-      </c>
-      <c r="C10">
-        <v>111129</v>
-      </c>
-      <c r="D10">
-        <v>111130</v>
-      </c>
-      <c r="E10">
-        <v>111131</v>
-      </c>
-      <c r="F10">
-        <v>111132</v>
-      </c>
-      <c r="G10">
-        <v>111133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1120</v>
-      </c>
-      <c r="C11">
-        <v>111130</v>
-      </c>
-      <c r="D11">
-        <v>111131</v>
-      </c>
-      <c r="E11">
-        <v>111132</v>
-      </c>
-      <c r="F11">
-        <v>111133</v>
-      </c>
-      <c r="G11">
-        <v>111134</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
